--- a/data/report_overview_config.xlsx
+++ b/data/report_overview_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sasoffice365-my.sharepoint.com/personal/peter_styliadis_sas_com/Documents/github repos/ExcelMasterywithSAS_Workshop/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sasoffice365-my.sharepoint.com/personal/suchee_tay_sas_com/Documents/Course Note PDF/INNOVATE 2025/ExcelProficiencywithSAS_Workshop-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{88AC6223-4042-41F2-AD43-6E2ECF727C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3648A1F-CE3F-4227-B7BA-F34CD32F5C4E}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{88AC6223-4042-41F2-AD43-6E2ECF727C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D65333D-A839-4D0A-BE7D-7EE7A974B404}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1BE33697-0351-4DD3-A921-BC7D4B9B1C5B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1BE33697-0351-4DD3-A921-BC7D4B9B1C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -63,18 +63,12 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Peter Styliadis</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
     <t>555-555-0000</t>
   </si>
   <si>
-    <t>Peter@myemail.com</t>
-  </si>
-  <si>
     <t>WorksheetName</t>
   </si>
   <si>
@@ -103,16 +97,30 @@
   </si>
   <si>
     <t>Provides information regarding employees on leave.</t>
+  </si>
+  <si>
+    <t>Su Chee Tay</t>
+  </si>
+  <si>
+    <t>SuChee@myemail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,16 +143,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -161,9 +172,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +212,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +318,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,7 +460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,7 +471,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -501,21 +512,24 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{9057E7D7-B1C7-4DC8-A4B8-636962658654}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -535,42 +549,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
